--- a/заказы/статистика филиалы/2023/10,23/19,10,23 ЗПФ/дв 19,10,23 лгрсч зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/19,10,23 ЗПФ/дв 19,10,23 лгрсч зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\19,10,23 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\19,10,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BDC122-7134-454E-8FF4-B9C8D3CD75A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C028EF9-7068-4F55-9262-5F4333C97C08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,10 +283,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2890,8 +2894,8 @@
   <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB35" sqref="AB35"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -4439,7 +4443,7 @@
         <v>8</v>
       </c>
       <c r="Z23" s="20">
-        <f t="shared" ref="Z7:Z49" si="10">O23/Y23</f>
+        <f t="shared" ref="Z23:Z47" si="10">O23/Y23</f>
         <v>0</v>
       </c>
       <c r="AA23" s="2">
